--- a/xlsx/计划经济_intext.xlsx
+++ b/xlsx/计划经济_intext.xlsx
@@ -15,449 +15,449 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
   <si>
     <t>计划经济</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_计划经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
+  </si>
+  <si>
+    <t>各国人均国内生产总值列表 (购买力平价)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国经济列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>非洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>南美洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>亚洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>欧洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/JEL%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>JEL分类系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>微观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宏观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>经济思想史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%96%B9%E6%B3%95</t>
+  </si>
+  <si>
+    <t>经济学方法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E7%BB%9F%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>非正统经济学思想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数理经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E9%87%8F%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计量经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>实验经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
+  </si>
+  <si>
+    <t>国民收入</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>经济体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>经济史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
+  </si>
+  <si>
+    <t>经济增长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>信息经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>博弈论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>行为经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>文化经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>演化经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>发展经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国际经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>货币经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>金融经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公共经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>福利经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>健康经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>农业经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>环境经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%9D%91%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>农村经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>产业组织理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生态经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>封闭经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>二元经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E7%89%A9%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>礼物经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>非正式经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>混合经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>伊斯兰经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
+  </si>
+  <si>
+    <t>自由放任</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>开放经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>参与经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>法西斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>乔治主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>社会主义市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>重商主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>保护主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>工团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9D%A1%E9%81%93%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>第三条道路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81-%E6%92%92%E5%85%8B%E9%80%8A%E6%A8%A1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>盎格鲁-撒克逊模式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%85%A8%E7%90%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>经济全球化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>新兴工业化国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>社会市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>传统经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>资源导向型经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
+  </si>
+  <si>
+    <t>Template talk-Economics sidebar</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>参与型经济</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>政策_政策_社会政策_计划经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国人均国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国经济列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>非洲經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>南美洲经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>亞洲經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>欧洲经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/JEL%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>JEL分类系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>微观经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宏观经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>经济思想史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%96%B9%E6%B3%95</t>
-  </si>
-  <si>
-    <t>经济学方法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E7%BB%9F%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>非正统经济学思想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数理经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E9%87%8F%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计量经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>实验经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>國民收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>经济体系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>经济史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
-  </si>
-  <si>
-    <t>经济增长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>劳动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>信息经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>博弈论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>行為經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>文化经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>演化经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>发展经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国际经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>貨幣經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>金融经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公共經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>福利经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>健康经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>農業經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>环境经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%9D%91%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>农村经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>产业组织理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生態經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>封閉經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>二元经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E7%89%A9%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>礼物经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>非正式經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>混合经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>伊斯兰经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
-  </si>
-  <si>
-    <t>自由放任</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>开放经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>参与经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社团主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>法西斯主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>乔治主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>社会主义市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>重商主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>保护主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>工团主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9D%A1%E9%81%93%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>第三条道路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81-%E6%92%92%E5%85%8B%E9%80%8A%E6%A8%A1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>盎格鲁-撒克逊模式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%85%A8%E7%90%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>经济全球化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>新興工業化國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>社会市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>传统经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>資源導向型經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
-  </si>
-  <si>
-    <t>Template talk-Economics sidebar</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>禮物經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>参与型经济</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E8%89%B2%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
@@ -473,21 +473,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資訊經濟</t>
+    <t>资讯经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>經濟體系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7</t>
   </si>
   <si>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>市場經濟體系</t>
+    <t>市场经济体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%B6%93%E6%BF%9F%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>混合經濟體系</t>
+    <t>混合经济体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -533,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE</t>
   </si>
   <si>
-    <t>老撾</t>
+    <t>老挝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%9D%8E%E6%96%AF%E7%89%B9</t>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>亞當·史密斯</t>
+    <t>亚当·史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AF%8C%E8%AE%BA</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -593,15 +587,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
+    <t>苹果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
@@ -635,19 +626,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A</t>
   </si>
   <si>
-    <t>車</t>
+    <t>车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%BB%8A</t>
   </si>
   <si>
-    <t>塞車</t>
+    <t>塞车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%98%86%E9%93%81%E8%B7%AF</t>
@@ -665,19 +656,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E4%B8%8D%E5%B0%8D%E7%A8%B1</t>
   </si>
   <si>
-    <t>資訊不對稱</t>
+    <t>资讯不对称</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E6%9E%9C</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
@@ -701,31 +692,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>蘇聯解體</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E9%A2%9D</t>
@@ -737,19 +719,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>關稅</t>
+    <t>关税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E8%B3%A3</t>
   </si>
   <si>
-    <t>專賣</t>
+    <t>专卖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E9%B9%BD</t>
   </si>
   <si>
-    <t>食鹽</t>
+    <t>食盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%B3%96</t>
@@ -773,37 +755,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>發電廠</t>
+    <t>发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%8D%A0</t>
   </si>
   <si>
-    <t>獨占</t>
+    <t>独占</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%94%9F%E7%89%A9%E8%B3%87</t>
   </si>
   <si>
-    <t>民生物資</t>
+    <t>民生物资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9D%E5%89%8A</t>
   </si>
   <si>
-    <t>剝削</t>
+    <t>剥削</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%B9%B4%E8%AE%A1%E5%88%92</t>
@@ -833,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%A7%9F</t>
   </si>
   <si>
-    <t>競租</t>
+    <t>竞租</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E4%BC%98%E5%8A%BF</t>
@@ -869,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -881,16 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3407,7 +3380,7 @@
         <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3491,10 +3464,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3520,13 +3493,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3549,10 +3522,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3578,10 +3551,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3607,10 +3580,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3636,10 +3609,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3665,10 +3638,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3694,13 +3667,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -3723,13 +3696,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -3752,13 +3725,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -3781,13 +3754,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G88" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -3810,13 +3783,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -3839,10 +3812,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3868,13 +3841,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -3897,10 +3870,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3926,13 +3899,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -3955,10 +3928,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3984,10 +3957,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4013,10 +3986,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4042,10 +4015,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4071,10 +4044,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4100,10 +4073,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4129,13 +4102,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4158,13 +4131,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4187,13 +4160,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G102" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4216,13 +4189,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4245,13 +4218,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4274,10 +4247,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4303,13 +4276,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4332,10 +4305,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4361,10 +4334,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4390,13 +4363,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4419,13 +4392,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4448,13 +4421,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4477,13 +4450,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -4506,10 +4479,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4535,13 +4508,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -4564,13 +4537,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4593,10 +4566,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4622,10 +4595,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4651,13 +4624,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -4680,13 +4653,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -4709,13 +4682,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4738,13 +4711,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -4767,13 +4740,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -4796,13 +4769,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -4825,13 +4798,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -4854,13 +4827,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -4883,13 +4856,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -4912,13 +4885,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -4941,10 +4914,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4970,10 +4943,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4999,10 +4972,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5028,10 +5001,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5057,10 +5030,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5086,10 +5059,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5115,10 +5088,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5144,10 +5117,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5173,10 +5146,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5202,10 +5175,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5231,10 +5204,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5260,13 +5233,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5289,13 +5262,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="F140" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5318,13 +5291,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F141" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5347,13 +5320,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>93</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -5376,10 +5349,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5405,10 +5378,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5434,10 +5407,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5463,10 +5436,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5492,10 +5465,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5521,10 +5494,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5550,10 +5523,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5579,10 +5552,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5608,10 +5581,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="F151" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5637,10 +5610,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="F152" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5666,13 +5639,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F153" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -5695,13 +5668,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -5724,13 +5697,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -5753,10 +5726,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5782,47 +5755,18 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>157</v>
-      </c>
-      <c r="E158" t="s">
-        <v>289</v>
-      </c>
-      <c r="F158" t="s">
-        <v>291</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1</v>
-      </c>
-      <c r="H158" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/计划经济_intext.xlsx
+++ b/xlsx/计划经济_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_社会政策_计划经济</t>
+    <t>体育运动_体育运动_竞争_计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
